--- a/public/downloads/operation_details_template.xlsx
+++ b/public/downloads/operation_details_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTG_APP\www\TIL_DAILY_TASK\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8438A1-1E7F-4182-86D5-9C173C84608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DE770-80BB-47A0-BD02-2CBF56964BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Activities</t>
   </si>
@@ -82,15 +82,26 @@
   </si>
   <si>
     <t>Total_Average</t>
+  </si>
+  <si>
+    <t>2 Hours OT Persons</t>
+  </si>
+  <si>
+    <t>Above 2 Hours  OT Persons</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>DHU%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -194,57 +205,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -529,15 +540,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -567,195 +581,295 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="C2" s="3"/>
+      <c r="D2" s="5">
         <v>2.14</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2.04</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>2.13</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>289</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>300</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>323</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>274</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>316</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(B3+D3+E3+F3)/4</f>
         <v>300.5</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>23</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>20</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>11</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>33</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>13</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>(B4+D4+E4+F4)</f>
         <v>80</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>268</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10">
+      <c r="C5" s="3"/>
+      <c r="D5" s="9">
         <v>314</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>278</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>305</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>(B5+D5+E5+F5)</f>
         <v>1165</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>0.41149999999999998</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.44690000000000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>0.45179999999999998</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>0.39879999999999999</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <f>(B6+D6+E6+F6)/4</f>
         <v>0.40227499999999999</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="9">
         <v>70214</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="9">
         <v>29924</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>60724</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>75000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>71438</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>(B7+D7+E7+F7)/4</f>
         <v>69344</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="9">
         <v>8023</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="10">
+      <c r="C8" s="4"/>
+      <c r="D8" s="9">
         <v>6436</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>13802</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>7529</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" ref="G8" si="0">(B8+D8+E8+F8)/4</f>
         <v>8947.5</v>
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="4">
         <v>8620</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>6630</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="4">
         <v>5000</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="4">
         <v>8681</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f>(B9+D9+E9+F9)/4</f>
         <v>7232.75</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14">
+        <v>160</v>
+      </c>
+      <c r="C10" s="14">
+        <v>93</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>131</v>
+      </c>
+      <c r="F10" s="14">
+        <v>81</v>
+      </c>
+      <c r="G10" s="7">
+        <f>(B10+C10+D10+E10+F10)</f>
+        <v>465</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14">
+        <v>78</v>
+      </c>
+      <c r="C11" s="15">
+        <v>93</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" ref="G11:G12" si="1">(B11+C11+D11+E11+F11)</f>
+        <v>171</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2303</v>
+      </c>
+      <c r="C12" s="14">
+        <v>18764</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1855</v>
+      </c>
+      <c r="F12" s="14">
+        <v>490</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>23412</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G13" s="7">
+        <f>(B13+C13+D13+E13+F13)/5</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
